--- a/Imoveis.xlsx
+++ b/Imoveis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucca Covre\Documents\GitHub\Banco-Imobiliario-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0FA312-A83C-4586-8874-EFDBAE04A469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69962B4-0698-42AB-85DA-B189DCF5FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{100B1798-790C-497F-ABD6-1A374E66F1B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{100B1798-790C-497F-ABD6-1A374E66F1B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Original" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -384,6 +381,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -398,13 +398,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F77A9AC-29C9-43B3-B370-7F5A19A83EDC}" name="Tabela1" displayName="Tabela1" ref="A1:D61" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F77A9AC-29C9-43B3-B370-7F5A19A83EDC}" name="Tabela1" displayName="Tabela1" ref="A1:D61" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D61" xr:uid="{3F77A9AC-29C9-43B3-B370-7F5A19A83EDC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ABC70044-592D-4C1E-A0A1-1B357DEC32B5}" name="Codigo" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0C76202A-98D4-4E38-B288-C919AE87455A}" name="Imovel" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2D92CC71-98CC-4FCB-8A5A-383ABCBF8228}" name="Localizacao" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2629CF21-0DC9-48BC-B171-C1C6C64B128B}" name="Valor" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{ABC70044-592D-4C1E-A0A1-1B357DEC32B5}" name="Codigo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0C76202A-98D4-4E38-B288-C919AE87455A}" name="Imovel" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2D92CC71-98CC-4FCB-8A5A-383ABCBF8228}" name="Localizacao" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2629CF21-0DC9-48BC-B171-C1C6C64B128B}" name="Valor" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J47" sqref="J47:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>320</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>340</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>350</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>360</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>700</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>710</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="4">
-        <v>740</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <v>180</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>190</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>200</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>210</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="4">
-        <v>280</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>290</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>300</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="4">
-        <v>310</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="4">
-        <v>320</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="4">
-        <v>800</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="4">
-        <v>810</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="4">
-        <v>820</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="4">
-        <v>830</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="4">
-        <v>840</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="4">
-        <v>750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="4">
-        <v>760</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="4">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="4">
-        <v>780</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="4">
-        <v>790</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>475</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>485</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="4">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="4">
-        <v>1200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="D36" s="4">
-        <v>1300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>29</v>
       </c>
       <c r="D37" s="4">
-        <v>395</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="4">
-        <v>405</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="D39" s="4">
-        <v>415</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>29</v>
       </c>
       <c r="D40" s="4">
-        <v>425</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="4">
-        <v>1600</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="4">
-        <v>1700</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="4">
-        <v>1800</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="4">
-        <v>1900</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="4">
-        <v>2000</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="4">
-        <v>2500</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="4">
-        <v>2600</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="4">
-        <v>2700</v>
+        <v>890</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="4">
-        <v>2800</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="4">
-        <v>3000</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="4">
-        <v>4000</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="4">
-        <v>4100</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="4">
-        <v>4200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="4">
-        <v>4300</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="4">
-        <v>4400</v>
+        <v>676</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4">
-        <v>5000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="4">
-        <v>5100</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="4">
-        <v>5200</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="4">
-        <v>5300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="4">
-        <v>6000</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
